--- a/modele/mur.xlsx
+++ b/modele/mur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123B17D3-F316-4F01-9359-164EC92DFE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C56833-5A88-4E52-893F-C871F9DF0BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="12" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -5171,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DEF0B-66F1-41F3-90E6-756FC31C312A}">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
